--- a/data/trans_dic/P6904-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6904-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P6904-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6904-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,39%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,53%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,63%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,25%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,05%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,13%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,49%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,7%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>52,03; 81,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>25,57; 54,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>35,9; 77,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>31,39; 71,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>53,27; 82,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>57,43; 95,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>47,76; 72,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>43,03; 63,44</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>52,54; 81,7</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,47%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,73%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,93%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,53%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,05%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>36,29; 62,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>51,06; 76,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>65,2; 83,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>36,35; 73,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>39,36; 74,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>23,54; 57,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>64,1; 90,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>38,15; 64,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>41,83; 63,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>43,29; 65,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,6</t>
+          <t>68,26; 83,84</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>42,91; 64,46</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,07%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,51%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,92%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,37%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,69%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,84%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,21%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,87%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,09%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,59%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,99%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,58%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>37,62; 69,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>42,59; 80,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>62,69; 95,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>37,49; 63,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>22,35; 63,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>21,39; 70,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>31,95; 86,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>43,98; 66,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>36,94; 61,68</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>40,69; 70,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>60,2; 87,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,55</t>
+          <t>44,66; 62,37</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,93%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,23%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,53%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,4%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,35%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,66%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>28,74; 54,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,36</t>
+          <t>43,64; 65,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>49,26; 83,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>55,28; 89,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>22,18; 63,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>45,22; 71,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>46,82; 81,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>71,5; 90,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>30,05; 53,85</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,43</t>
+          <t>47,21; 64,49</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>55,4; 78,88</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>70,58; 88,2</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,64%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,85%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,97%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,6%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,51%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,7%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,06%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,75%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,49%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,44%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,01%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>19,16; 61,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>63,09; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>28,13; 83,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>27,34; 66,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0,0; 57,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>31,74; 91,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>33,67; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>25,26; 64,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>19,13; 52,21</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>58,94; 90,23</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>39,08; 84,78</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>31,68; 61,23</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,23%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,42%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,34%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,76%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,61%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,33%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,26%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,58%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,53%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,27%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,51%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>25,15; 56,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>40,45; 70,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>17,67; 58,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>45,07; 76,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>19,07; 70,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>6,43; 47,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>57,79; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>42,63; 70,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>28,56; 55,96</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>36,72; 62,76</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>30,93; 67,56</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>48,05; 69,38</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,11%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,31%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,99%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,98%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,93%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,06%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,58%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,51%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,04%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,62%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,91%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,77%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>38,44; 61,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>27,52; 55,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>54,08; 76,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>44,83; 69,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>37,58; 67,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>42,58; 71,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>42,59; 70,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>55,26; 76,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,5</t>
+          <t>41,83; 58,45</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,0</t>
+          <t>38,66; 58,83</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>53,38; 71,16</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>53,48; 68,99</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,9%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,66%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,9%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,54%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,13%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,12%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,08%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,85%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,28%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,43%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,61%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,69%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,73</t>
+          <t>54,18; 72,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>27,93; 56,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>20,88; 53,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>63,81; 86,39</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>50,41; 78,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>36,34; 74,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>30,69; 72,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>39,69; 70,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>55,37; 71,08</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>36,32; 60,72</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>31,07; 56,26</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,51</t>
+          <t>55,37; 73,33</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,24%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,83%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,55%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,7%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,75%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,66%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,2%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,71%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,08%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,57%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,48%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,21%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>47,51; 57,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>48,93; 61,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>54,02; 65,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>56,15; 67,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>44,66; 58,32</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>44,7; 58,16</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>60,78; 73,25</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>57,7; 68,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>48,48; 56,12</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>49,01; 58,39</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>58,22; 66,58</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>57,79; 65,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6904-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6904-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,58%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>57,63%</t>
+          <t>57,7%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,18%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>84,05%</t>
+          <t>83,1%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,74%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>68,7%</t>
+          <t>67,75%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,76; 73,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>35,9; 77,45</t>
+          <t>34,73; 77,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,42; 82,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>57,43; 95,36</t>
+          <t>54,74; 95,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,23; 72,76</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>52,54; 81,7</t>
+          <t>51,09; 81,24</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>55,71%</t>
+          <t>57,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>52,47%</t>
+          <t>52,39%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>54,05%</t>
+          <t>54,73%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36,35; 73,28</t>
+          <t>37,48; 74,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,15; 64,87</t>
+          <t>38,23; 64,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>42,91; 64,46</t>
+          <t>43,2; 65,22</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>51,37%</t>
+          <t>51,24%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>55,87%</t>
+          <t>55,93%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>53,58%</t>
+          <t>53,5%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>37,49; 63,77</t>
+          <t>37,42; 63,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>43,98; 66,77</t>
+          <t>43,91; 66,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>44,66; 62,37</t>
+          <t>44,51; 62,35</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>54,59%</t>
+          <t>51,08%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>75,88%</t>
+          <t>76,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>59,05%</t>
+          <t>52,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>82,23%</t>
+          <t>87,48%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>56,4%</t>
+          <t>51,56%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>79,66%</t>
+          <t>83,8%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,64; 65,95</t>
+          <t>35,2; 66,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>55,28; 89,18</t>
+          <t>55,74; 89,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,22; 71,13</t>
+          <t>34,8; 70,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>71,5; 90,95</t>
+          <t>75,38; 96,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>47,21; 64,49</t>
+          <t>40,16; 62,74</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>70,58; 88,2</t>
+          <t>73,83; 93,61</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>46,6%</t>
+          <t>46,89%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>45,06%</t>
+          <t>45,18%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>46,01%</t>
+          <t>46,24%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27,34; 66,92</t>
+          <t>27,84; 67,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,26; 64,64</t>
+          <t>25,53; 64,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>31,68; 61,23</t>
+          <t>31,98; 61,19</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>61,76%</t>
+          <t>61,79%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>57,26%</t>
+          <t>57,28%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>59,51%</t>
+          <t>59,58%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>45,07; 76,69</t>
+          <t>45,14; 76,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>48,05; 69,38</t>
+          <t>48,09; 69,4</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>56,98%</t>
+          <t>56,65%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>66,51%</t>
+          <t>66,06%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>61,77%</t>
+          <t>61,27%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>44,83; 69,81</t>
+          <t>44,36; 69,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>55,26; 76,02</t>
+          <t>54,16; 75,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>53,48; 68,99</t>
+          <t>52,25; 68,62</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>75,54%</t>
+          <t>75,72%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>53,85%</t>
+          <t>53,48%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>64,69%</t>
+          <t>64,8%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>63,81; 86,39</t>
+          <t>64,03; 86,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>39,69; 70,78</t>
+          <t>39,57; 69,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>55,37; 73,33</t>
+          <t>55,6; 72,9</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>61,7%</t>
+          <t>61,49%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>62,71%</t>
+          <t>65,29%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>62,21%</t>
+          <t>63,43%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>56,15; 67,09</t>
+          <t>55,92; 67,08</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>57,7; 68,42</t>
+          <t>59,17; 75,5</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>57,79; 65,88</t>
+          <t>59,03; 69,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6904-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6904-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>52,03; 81,5</t>
+          <t>50,85; 79,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>41,76; 73,35</t>
+          <t>42,61; 74,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,57; 54,35</t>
+          <t>27,49; 54,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>34,73; 77,72</t>
+          <t>34,5; 78,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,39; 71,08</t>
+          <t>34,96; 72,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,42; 82,37</t>
+          <t>45,43; 82,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>53,27; 82,05</t>
+          <t>54,14; 82,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>54,74; 95,34</t>
+          <t>54,68; 95,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>47,76; 72,05</t>
+          <t>48,91; 72,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>47,23; 72,76</t>
+          <t>48,49; 72,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>43,03; 63,44</t>
+          <t>42,09; 62,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>51,09; 81,24</t>
+          <t>52,01; 81,63</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>36,29; 62,09</t>
+          <t>37,95; 62,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,06; 76,99</t>
+          <t>51,35; 77,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>65,2; 83,57</t>
+          <t>64,79; 83,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>37,48; 74,83</t>
+          <t>37,54; 75,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,36; 74,13</t>
+          <t>42,56; 76,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,54; 57,26</t>
+          <t>23,09; 57,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>64,1; 90,26</t>
+          <t>63,85; 90,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,23; 64,8</t>
+          <t>39,79; 66,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>41,83; 63,1</t>
+          <t>41,17; 62,32</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>43,29; 65,26</t>
+          <t>43,21; 65,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>68,26; 83,84</t>
+          <t>67,67; 83,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>43,2; 65,22</t>
+          <t>43,42; 65,85</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>37,62; 69,18</t>
+          <t>36,69; 70,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,59; 80,73</t>
+          <t>41,76; 77,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>62,69; 95,65</t>
+          <t>64,33; 95,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>37,42; 63,6</t>
+          <t>37,87; 65,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,35; 63,21</t>
+          <t>22,3; 63,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,39; 70,41</t>
+          <t>22,56; 72,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,95; 86,53</t>
+          <t>35,76; 86,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>43,91; 66,69</t>
+          <t>42,99; 68,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>36,94; 61,68</t>
+          <t>35,6; 61,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>40,69; 70,84</t>
+          <t>38,96; 69,51</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>60,2; 87,57</t>
+          <t>59,36; 88,99</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>44,51; 62,35</t>
+          <t>44,35; 62,67</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,74; 54,89</t>
+          <t>29,16; 54,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,2; 66,5</t>
+          <t>33,09; 64,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49,26; 83,65</t>
+          <t>51,48; 83,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>55,74; 89,41</t>
+          <t>54,9; 89,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,18; 63,26</t>
+          <t>22,39; 62,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,8; 70,63</t>
+          <t>32,11; 69,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>46,82; 81,65</t>
+          <t>45,15; 80,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>75,38; 96,55</t>
+          <t>75,32; 96,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,05; 53,85</t>
+          <t>30,07; 54,08</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>40,16; 62,74</t>
+          <t>39,21; 62,87</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>55,4; 78,88</t>
+          <t>54,56; 78,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>73,83; 93,61</t>
+          <t>73,48; 93,76</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,16; 61,07</t>
+          <t>20,31; 61,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>63,09; 100,0</t>
+          <t>63,77; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28,13; 83,78</t>
+          <t>27,78; 83,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27,84; 67,17</t>
+          <t>27,07; 67,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,5</t>
+          <t>0,0; 70,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,74; 91,42</t>
+          <t>30,78; 91,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,67; 100,0</t>
+          <t>33,75; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,53; 64,98</t>
+          <t>25,55; 65,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,13; 52,21</t>
+          <t>17,81; 50,84</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>58,94; 90,23</t>
+          <t>58,89; 92,57</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>39,08; 84,78</t>
+          <t>41,5; 84,86</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>31,98; 61,19</t>
+          <t>31,28; 60,33</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>25,15; 56,86</t>
+          <t>24,17; 54,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>40,45; 70,41</t>
+          <t>40,01; 70,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,67; 58,87</t>
+          <t>17,84; 55,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>45,14; 76,84</t>
+          <t>46,46; 76,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,07; 70,6</t>
+          <t>14,44; 70,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,43; 47,97</t>
+          <t>6,38; 51,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>57,79; 100,0</t>
+          <t>43,98; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>42,63; 70,92</t>
+          <t>42,21; 71,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>28,56; 55,96</t>
+          <t>27,53; 53,82</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>36,72; 62,76</t>
+          <t>36,24; 61,68</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>30,93; 67,56</t>
+          <t>29,98; 66,67</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>48,09; 69,4</t>
+          <t>48,02; 69,78</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>38,44; 61,49</t>
+          <t>38,61; 59,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>27,52; 55,2</t>
+          <t>26,32; 54,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>54,08; 76,16</t>
+          <t>54,26; 76,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>44,36; 69,7</t>
+          <t>44,78; 68,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>37,58; 67,96</t>
+          <t>36,09; 66,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>42,58; 71,8</t>
+          <t>42,14; 72,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>42,59; 70,42</t>
+          <t>44,75; 73,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>54,16; 75,58</t>
+          <t>54,55; 74,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>41,83; 58,45</t>
+          <t>42,21; 58,76</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>38,66; 58,83</t>
+          <t>39,24; 59,77</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>53,38; 71,16</t>
+          <t>53,97; 70,9</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>52,25; 68,62</t>
+          <t>52,69; 69,02</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>54,18; 72,34</t>
+          <t>53,18; 71,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>27,93; 56,96</t>
+          <t>27,73; 56,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>20,88; 53,62</t>
+          <t>23,17; 53,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>64,03; 86,31</t>
+          <t>62,98; 85,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>50,41; 78,95</t>
+          <t>47,41; 76,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>36,34; 74,47</t>
+          <t>35,85; 75,1</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>30,69; 72,38</t>
+          <t>30,0; 73,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>39,57; 69,59</t>
+          <t>40,52; 69,96</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>55,37; 71,08</t>
+          <t>55,56; 70,5</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>36,32; 60,72</t>
+          <t>36,36; 59,57</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>31,07; 56,26</t>
+          <t>30,07; 56,9</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>55,6; 72,9</t>
+          <t>55,2; 73,14</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>47,51; 57,21</t>
+          <t>47,36; 56,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>48,93; 61,16</t>
+          <t>49,21; 60,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>54,02; 65,28</t>
+          <t>54,1; 64,93</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55,92; 67,08</t>
+          <t>55,63; 67,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>44,66; 58,32</t>
+          <t>45,5; 59,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>44,7; 58,16</t>
+          <t>44,37; 58,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>60,78; 73,25</t>
+          <t>60,83; 73,65</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>59,17; 75,5</t>
+          <t>59,44; 75,25</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>48,48; 56,12</t>
+          <t>48,19; 55,86</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>49,01; 58,39</t>
+          <t>49,01; 58,03</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>58,22; 66,58</t>
+          <t>58,35; 66,58</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>59,03; 69,14</t>
+          <t>59,07; 69,2</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que tiene dolores musculares</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>28446</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>23137</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>23742</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>13888</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15239</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>18517</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>28465</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>13092</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>43684</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>41654</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>52207</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>26980</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>21787; 33995</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>16829; 29342</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>16105; 31937</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8303; 18782</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10005; 20744</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12712; 23043</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>22135; 33679</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8615; 15032</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>34949; 52017</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>32714; 49164</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>41859; 62384</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>20714; 32509</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>36320</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>36820</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>62104</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>26388</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>19095</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>13115</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>33928</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>23809</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>55414</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>49934</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>96032</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>50197</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>27475; 45514</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>29057; 44016</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>53634; 69256</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>17373; 34861</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>13912; 24960</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7925; 19813</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>27261; 38493</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>18084; 30130</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>43267; 65485</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>39280; 59361</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>84916; 104504</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>39830; 60396</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>19798</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15565</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>17625</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>25360</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8840</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8042</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8027</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>25687</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>28638</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>23607</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>25652</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>51048</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13435; 25723</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10566; 19645</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13673; 20335</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18746; 32343</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4844; 13786</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4047; 12984</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4470; 10825</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19744; 31251</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>20771; 35882</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>16846; 30057</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>20037; 30039</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>42321; 59801</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>24311</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22915</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>22378</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>30848</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9344</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>15442</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>19648</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>70554</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>33655</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>38358</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>42026</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>101402</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>17007; 32043</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>14843; 29041</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>16712; 27025</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>22152; 36065</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5085; 14216</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>9482; 20512</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>13515; 24194</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>60747; 78158</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>24364; 43821</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>29172; 46770</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>34046; 48967</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>88910; 113456</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9099</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>14204</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>8472</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>8326</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7639</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4830</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4964</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>10098</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>21843</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>13302</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>13289</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4661; 14174</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10310; 16169</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4131; 12416</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4807; 11919</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4936</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3589; 10720</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1948; 5771</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2807; 7186</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5330; 15215</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>16390; 25762</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>8566; 17516</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>8991; 17339</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>16819</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>24473</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7928</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>19536</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5864</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3948</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>6486</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>17306</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>22683</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>28422</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>14413</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>36842</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>10106; 22912</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>17355; 30636</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4001; 12391</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>14688; 24148</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2036; 9924</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>968; 7845</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>3266; 7427</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>12754; 21726</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>15393; 30089</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>21226; 36120</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>8953; 19907</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>29689; 43147</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>43438</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>22104</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>51698</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>41454</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>22607</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>26465</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>32618</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>46589</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>66045</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>48570</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>84316</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>88043</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>34153; 53015</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>14085; 29135</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>42506; 59652</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>32771; 49811</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>15713; 29152</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>19545; 33543</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>24917; 40656</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>38471; 52734</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>55711; 77554</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>39197; 59701</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>72327; 95027</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>75720; 99187</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>68503</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>19224</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>14494</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>42975</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>31930</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>17214</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>11359</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>29258</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>100433</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>36438</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>25853</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>72233</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>57921; 78266</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>12797; 25985</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>9098; 21116</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>35745; 48575</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>23602; 38029</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>10997; 23035</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>6420; 15707</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>22168; 38274</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>88179; 111889</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>27932; 45759</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>18245; 34521</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>61528; 81531</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>246734</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>178441</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>208440</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>208774</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>113916</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>110383</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>145362</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>231260</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>360650</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>288825</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>353802</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>440034</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>223693; 268198</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>160143; 197915</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>189336; 227259</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>188867; 227692</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>100160; 129872</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>94801; 124703</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>131567; 159313</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>210530; 266559</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>333659; 386773</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>264194; 312849</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>330461; 377016</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>409751; 480048</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>